--- a/biology/Botanique/Achillée_à_grandes_feuilles/Achillée_à_grandes_feuilles.xlsx
+++ b/biology/Botanique/Achillée_à_grandes_feuilles/Achillée_à_grandes_feuilles.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Achill%C3%A9e_%C3%A0_grandes_feuilles</t>
+          <t>Achillée_à_grandes_feuilles</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'Achillée à grandes feuilles (Achillea macrophylla) est une plante herbacée vivace du genre des Achillées et de la famille des Astéracées.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Achill%C3%A9e_%C3%A0_grandes_feuilles</t>
+          <t>Achillée_à_grandes_feuilles</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,48 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les fleurs de l'Achillée à grandes feuilles sont quasi identiques à celles de l'Achillée millefeuille. C'est la taille de l'Achillée à grandes feuilles et la forme de ses feuilles qui la distinguent fortement de la précédente.
-Caractéristiques
-Organes reproducteurs
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Achillée_à_grandes_feuilles</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Achill%C3%A9e_%C3%A0_grandes_feuilles</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Caractéristiques</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Organes reproducteurs
 Couleur dominante des fleurs : blanc
 Période de floraison : août-septembre
 Inflorescence : corymbe de capitules
